--- a/Reports/Profit and Loss Report.xlsx
+++ b/Reports/Profit and Loss Report.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="ProfitAndLoss" sheetId="1" r:id="Recec61c49b034487"/>
+    <sheet name="ProfitAndLoss" sheetId="1" r:id="R02ad52be30734adc"/>
   </sheets>
 </workbook>
 </file>
@@ -28,7 +28,19 @@
     <t>Profit</t>
   </si>
   <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
     <t>Italy</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>USA</t>
   </si>
 </sst>
 </file>
@@ -64,13 +76,81 @@
         <v>2014</v>
       </c>
       <c r="C2">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="D2">
+        <v>300</v>
+      </c>
+      <c r="E2">
+        <v>-155</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>2014</v>
+      </c>
+      <c r="C3">
+        <v>85</v>
+      </c>
+      <c r="D3">
+        <v>800</v>
+      </c>
+      <c r="E3">
+        <v>-715</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>2014</v>
+      </c>
+      <c r="C4">
+        <v>85</v>
+      </c>
+      <c r="D4">
         <v>500</v>
       </c>
-      <c r="E2">
-        <v>-469</v>
+      <c r="E4">
+        <v>-415</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>2014</v>
+      </c>
+      <c r="C5">
+        <v>85</v>
+      </c>
+      <c r="D5">
+        <v>900</v>
+      </c>
+      <c r="E5">
+        <v>-815</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>2014</v>
+      </c>
+      <c r="C6">
+        <v>85</v>
+      </c>
+      <c r="D6">
+        <v>1000</v>
+      </c>
+      <c r="E6">
+        <v>-915</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Profit and Loss Report.xlsx
+++ b/Reports/Profit and Loss Report.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="ProfitAndLoss" sheetId="1" r:id="R02ad52be30734adc"/>
+    <sheet name="ProfitAndLoss" sheetId="1" r:id="R76eae160f9dd459c"/>
   </sheets>
 </workbook>
 </file>

--- a/Reports/Profit and Loss Report.xlsx
+++ b/Reports/Profit and Loss Report.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="ProfitAndLoss" sheetId="1" r:id="R76eae160f9dd459c"/>
+    <sheet name="ProfitAndLoss" sheetId="1" r:id="Rd0b94eb23d0d4ddd"/>
   </sheets>
 </workbook>
 </file>
